--- a/Salesforce/src/test/resources/suitea.xlsx
+++ b/Salesforce/src/test/resources/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="8535" windowHeight="7185" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="8535" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>TCID</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>http://zoho.com</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>loginLink</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>nextButton</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>signInButton</t>
   </si>
 </sst>
 </file>
@@ -523,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -561,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -580,26 +598,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -607,16 +626,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -624,113 +646,122 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -740,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -749,7 +780,7 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -795,10 +826,10 @@
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -810,7 +841,9 @@
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
@@ -823,7 +856,9 @@
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
@@ -838,7 +873,9 @@
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
@@ -851,7 +888,9 @@
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
@@ -866,7 +905,9 @@
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
@@ -887,26 +928,38 @@
         <v>3</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
@@ -937,9 +990,6 @@
       <c r="E15" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>